--- a/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh/Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh/Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Othniel_Charles_Marsh</t>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Othniel Charles Marsh est un naturaliste américain, un biologiste et un paléontologue. Adversaire acharné d'Edward Drinker Cope, il a découvert un grand nombre de nouveaux genres et d'espèces fossiles.
 Seuls les taxons en italique ont été découverts ou décrits par Marsh.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Othniel_Charles_Marsh</t>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Othniel_Charles_Marsh</t>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,9 +554,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sauropsides
-Diapsides
-Archosaures
+          <t>Sauropsides</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Diapsides</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Archosaures
 Dinosaures
 Ornithopoda, 1871
 Dryosauridae
@@ -623,10 +645,47 @@
 Lépidosaures
 Mosasaures
 Tylosaurinae
-Tylosaurus, 1872
-Synapsides
-Mammifères
-Allotheria, 1880
+Tylosaurus, 1872</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_découvertes_et_décrites_par_Othniel_Charles_Marsh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_d%C3%A9couvertes_et_d%C3%A9crites_par_Othniel_Charles_Marsh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synapsides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Allotheria, 1880
 Cetartiodactyla
 Protoceratidae, 1891
 Elomeryx, 1894
